--- a/output/MDG.xlsx
+++ b/output/MDG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>4. Agriculture land area (% of land area)_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4. Agriculture land area (% of land area)_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>13. Population</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_y</t>
         </is>
       </c>
     </row>
@@ -487,29 +507,1076 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="E2" t="n">
+        <v>62.5064484</v>
+      </c>
+      <c r="F2" t="n">
+        <v>62.5064484</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1441.77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.444363636</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.444363636</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12245260</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12245260</v>
+      </c>
+      <c r="L2" t="n">
+        <v>79.2056602093914</v>
+      </c>
+      <c r="M2" t="n">
+        <v>79.2056602093914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62.54083984</v>
+      </c>
+      <c r="F3" t="n">
+        <v>62.54083984</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1428.08</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.768705036</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.768705036</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12623342</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12623342</v>
+      </c>
+      <c r="L3" t="n">
+        <v>79.17097255506761</v>
+      </c>
+      <c r="M3" t="n">
+        <v>79.17097255506761</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="E4" t="n">
+        <v>62.7471885</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62.7471885</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1431.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.821724138</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.821724138</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13020100</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13020100</v>
+      </c>
+      <c r="L4" t="n">
+        <v>79.13850011025281</v>
+      </c>
+      <c r="M4" t="n">
+        <v>79.13850011025281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="E5" t="n">
+        <v>62.72999278</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62.72999278</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1446.32</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.884827586</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.884827586</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13436121</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13436121</v>
+      </c>
+      <c r="L5" t="n">
+        <v>79.2726774847292</v>
+      </c>
+      <c r="M5" t="n">
+        <v>79.2726774847292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62.72999278</v>
+      </c>
+      <c r="F6" t="n">
+        <v>62.72999278</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1387.65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.326206897</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.326206897</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13869138</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13869138</v>
+      </c>
+      <c r="L6" t="n">
+        <v>79.09885784999901</v>
+      </c>
+      <c r="M6" t="n">
+        <v>79.09885784999901</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>62.92946315</v>
+      </c>
+      <c r="F7" t="n">
+        <v>62.92946315</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1347.59</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.747931034</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.747931034</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14317454</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14317454</v>
+      </c>
+      <c r="L7" t="n">
+        <v>79.0016020709682</v>
+      </c>
+      <c r="M7" t="n">
+        <v>79.0016020709682</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>64.46676067</v>
+      </c>
+      <c r="F8" t="n">
+        <v>64.46676067</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1395.76</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.275862069</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.275862069</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14778903</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14778903</v>
+      </c>
+      <c r="L8" t="n">
+        <v>78.8547796480776</v>
+      </c>
+      <c r="M8" t="n">
+        <v>78.8547796480776</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>66.18633284000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>66.18633284000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1481.88</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.992068966</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.992068966</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15250934</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15250934</v>
+      </c>
+      <c r="L9" t="n">
+        <v>78.7512864322465</v>
+      </c>
+      <c r="M9" t="n">
+        <v>78.7512864322465</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>72.3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67.92310073</v>
+      </c>
+      <c r="F10" t="n">
+        <v>67.92310073</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1454.04</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.715172414</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.715172414</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15730885</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15730885</v>
+      </c>
+      <c r="L10" t="n">
+        <v>78.6706460200346</v>
+      </c>
+      <c r="M10" t="n">
+        <v>78.6706460200346</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="E11" t="n">
+        <v>69.64267289999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>69.64267289999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1404.66</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.141724138</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.141724138</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16216431</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16216431</v>
+      </c>
+      <c r="L11" t="n">
+        <v>78.6854215624854</v>
+      </c>
+      <c r="M11" t="n">
+        <v>78.6854215624854</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E12" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1380.83</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.068135593</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.068135593</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16709665</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16709665</v>
+      </c>
+      <c r="L12" t="n">
+        <v>78.646046198351</v>
+      </c>
+      <c r="M12" t="n">
+        <v>78.646046198351</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="E13" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1394.86</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.103335593</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.103335593</v>
+      </c>
+      <c r="J13" t="n">
+        <v>17211934</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17211934</v>
+      </c>
+      <c r="L13" t="n">
+        <v>81.1103113253326</v>
+      </c>
+      <c r="M13" t="n">
+        <v>81.1103113253326</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E14" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1380.16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.359620339</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.359620339</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17724310</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17724310</v>
+      </c>
+      <c r="L14" t="n">
+        <v>81.5511692463145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>81.5511692463145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E15" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1449.41</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.263522034</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.263522034</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18250774</v>
+      </c>
+      <c r="K15" t="n">
+        <v>18250774</v>
+      </c>
+      <c r="L15" t="n">
+        <v>81.9183766526609</v>
+      </c>
+      <c r="M15" t="n">
+        <v>81.9183766526609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1372.54</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.567373333</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.567373333</v>
+      </c>
+      <c r="J16" t="n">
+        <v>18792171</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18792171</v>
+      </c>
+      <c r="L16" t="n">
+        <v>81.9640947812637</v>
+      </c>
+      <c r="M16" t="n">
+        <v>81.9640947812637</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>90.7</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E17" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1403.48</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.52645</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.52645</v>
+      </c>
+      <c r="J17" t="n">
+        <v>19350299</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19350299</v>
+      </c>
+      <c r="L17" t="n">
+        <v>80.3407292936396</v>
+      </c>
+      <c r="M17" t="n">
+        <v>80.3407292936396</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E18" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1379.96</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.210956667</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.210956667</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19924958</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19924958</v>
+      </c>
+      <c r="L18" t="n">
+        <v>78.45316427879921</v>
+      </c>
+      <c r="M18" t="n">
+        <v>78.45316427879921</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="E19" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="F19" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1394.74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.273506667</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.273506667</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20513599</v>
+      </c>
+      <c r="K19" t="n">
+        <v>20513599</v>
+      </c>
+      <c r="L19" t="n">
+        <v>76.50664545357751</v>
+      </c>
+      <c r="M19" t="n">
+        <v>76.50664545357751</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>103.85</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E20" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="F20" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1400.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.605223333</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.605223333</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21117092</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21117092</v>
+      </c>
+      <c r="L20" t="n">
+        <v>75.29206203744231</v>
+      </c>
+      <c r="M20" t="n">
+        <v>75.29206203744231</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>106.3</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="E21" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="F21" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1374.06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.977286667</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.977286667</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21731053</v>
+      </c>
+      <c r="K21" t="n">
+        <v>21731053</v>
+      </c>
+      <c r="L21" t="n">
+        <v>73.3571582289302</v>
+      </c>
+      <c r="M21" t="n">
+        <v>73.3571582289302</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>105.45</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>70.29108191</v>
+      </c>
+      <c r="F22" t="n">
+        <v>70.29108191</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1366.36</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.203673333</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.203673333</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22348158</v>
+      </c>
+      <c r="K22" t="n">
+        <v>22348158</v>
+      </c>
+      <c r="L22" t="n">
+        <v>71.25512993670711</v>
+      </c>
+      <c r="M22" t="n">
+        <v>71.25512993670711</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>110.29</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70.29108191</v>
+      </c>
+      <c r="F23" t="n">
+        <v>70.29108191</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1384.04</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.03834</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.03834</v>
+      </c>
+      <c r="J23" t="n">
+        <v>22966240</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22966240</v>
+      </c>
+      <c r="L23" t="n">
+        <v>68.8728786485411</v>
+      </c>
+      <c r="M23" t="n">
+        <v>68.8728786485411</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="F24" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1408.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.799916667</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.799916667</v>
+      </c>
+      <c r="J24" t="n">
+        <v>23588073</v>
+      </c>
+      <c r="K24" t="n">
+        <v>23588073</v>
+      </c>
+      <c r="L24" t="n">
+        <v>71.1856752282833</v>
+      </c>
+      <c r="M24" t="n">
+        <v>71.1856752282833</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2014</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>101.75</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D25" t="n">
         <v>23.12</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E25" t="n">
         <v>70.29047783</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F25" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="G25" t="n">
         <v>1392.77</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H25" t="n">
         <v>8.734476666999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I25" t="n">
+        <v>8.734476666999999</v>
+      </c>
+      <c r="J25" t="n">
         <v>24215976</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K25" t="n">
+        <v>24215976</v>
+      </c>
+      <c r="L25" t="n">
+        <v>73.0968857266804</v>
+      </c>
+      <c r="M25" t="n">
         <v>73.0968857266804</v>
       </c>
     </row>

--- a/output/MDG.xlsx
+++ b/output/MDG.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>3. Agricultural land area (sq. km)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
         <v>101.75</v>
       </c>
       <c r="D2" t="n">
-        <v>70.29047783</v>
+        <v>408950.00001494</v>
       </c>
       <c r="E2" t="n">
         <v>1513</v>
@@ -516,7 +516,7 @@
         <v>98.43000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>70.29047783</v>
+        <v>408950.00001494</v>
       </c>
       <c r="E3" t="n">
         <v>1513</v>
@@ -544,7 +544,7 @@
         <v>99.81999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>70.29047783</v>
+        <v>408950.00001494</v>
       </c>
       <c r="E4" t="n">
         <v>1513</v>
@@ -572,7 +572,7 @@
         <v>97.23999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>70.29047783</v>
+        <v>408950.00001494</v>
       </c>
       <c r="E5" t="n">
         <v>1513</v>
@@ -600,7 +600,7 @@
         <v>101.87</v>
       </c>
       <c r="D6" t="n">
-        <v>70.29047783</v>
+        <v>408950.00001494</v>
       </c>
       <c r="E6" t="n">
         <v>1513</v>
@@ -628,7 +628,7 @@
         <v>102.83</v>
       </c>
       <c r="D7" t="n">
-        <v>70.29047783</v>
+        <v>408950.00001494</v>
       </c>
       <c r="E7" t="n">
         <v>1513</v>
@@ -656,7 +656,7 @@
         <v>103.99</v>
       </c>
       <c r="D8" t="n">
-        <v>70.29047783</v>
+        <v>408950.00001494</v>
       </c>
       <c r="E8" t="n">
         <v>1513</v>
@@ -684,7 +684,7 @@
         <v>105.75</v>
       </c>
       <c r="D9" t="n">
-        <v>70.29047783</v>
+        <v>408950.00001494</v>
       </c>
       <c r="E9" t="n">
         <v>1513</v>

--- a/output/MDG.xlsx
+++ b/output/MDG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3. Agricultural land area (sq. km)</t>
+          <t>1. Mean air temperature</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>10. PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>11. Arable land (hectares)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>12. Livestock production index (2014-2016 = 100)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>14. Fertilizers by Nutrient (phosphate P2O5)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. Population living in slums (% of urban population)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>18. Temperature change on land</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>19. Fertilizers by Nutrient (nitrogen N)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2. Energy use in agriculture</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>20. Agriculture land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>21. Employment in agriculture</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>3. Land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>4. Agriculture land area (% of land area)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm per year)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>6. Permanent cropland (% of land area)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>13. Population</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>8. Annual freshwater withdrawals, total (billion cubic meters)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>9. Fertilizers by Nutrient (potash K2O)</t>
         </is>
       </c>
     </row>
@@ -482,26 +557,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C2" t="n">
-        <v>101.75</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8.734476666999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>24215976</v>
-      </c>
-      <c r="H2" t="n">
-        <v>73.0968857266804</v>
-      </c>
+        <v>22.45</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,26 +590,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>98.43000000000001</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.531023333</v>
-      </c>
-      <c r="G3" t="n">
-        <v>24850912</v>
-      </c>
-      <c r="H3" t="n">
-        <v>74.64428156637</v>
-      </c>
+        <v>22.47</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,26 +623,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C4" t="n">
-        <v>99.81999999999999</v>
-      </c>
+        <v>1952</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.988923333</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25501941</v>
-      </c>
-      <c r="H4" t="n">
-        <v>73.9809314360574</v>
-      </c>
+        <v>22.52</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -566,26 +656,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="n">
-        <v>97.23999999999999</v>
-      </c>
+        <v>1953</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.99518667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26169542</v>
-      </c>
-      <c r="H5" t="n">
-        <v>73.3285308066143</v>
-      </c>
+        <v>22.45</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,26 +689,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C6" t="n">
-        <v>101.87</v>
-      </c>
+        <v>1954</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12.60090667</v>
-      </c>
-      <c r="G6" t="n">
-        <v>26846541</v>
-      </c>
-      <c r="H6" t="n">
-        <v>72.7796980950079</v>
-      </c>
+        <v>22.47</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -622,26 +722,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C7" t="n">
-        <v>102.83</v>
-      </c>
+        <v>1955</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.94542</v>
-      </c>
-      <c r="G7" t="n">
-        <v>27533134</v>
-      </c>
-      <c r="H7" t="n">
-        <v>71.9196151923047</v>
-      </c>
+        <v>22.48</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -650,26 +755,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C8" t="n">
-        <v>103.99</v>
-      </c>
+        <v>1956</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.58036</v>
-      </c>
-      <c r="G8" t="n">
-        <v>28225177</v>
-      </c>
-      <c r="H8" t="n">
-        <v>71.66677292436469</v>
-      </c>
+        <v>22.45</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,26 +788,4125 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>5073342</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1925000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>96.56</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5206239</v>
+      </c>
+      <c r="I13" t="n">
+        <v>106</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="M13" t="n">
+        <v>828</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R13" t="n">
+        <v>60.43436393</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.7729870129999999</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>1940000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100.21</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5343117</v>
+      </c>
+      <c r="I14" t="n">
+        <v>132</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>-0.107</v>
+      </c>
+      <c r="M14" t="n">
+        <v>969</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R14" t="n">
+        <v>60.47735323</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>-0.107</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.889690722</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1955000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>101.43</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5484252</v>
+      </c>
+      <c r="I15" t="n">
+        <v>527</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>-0.312</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1886</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R15" t="n">
+        <v>60.52034254</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>-0.312</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.980051151</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>1970000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>103.58</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5630024</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1218</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-0.399</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1453</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R16" t="n">
+        <v>60.56333184</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>-0.399</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.180203046</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1985000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>95.17</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5780453</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1523</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>-0.601</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2332</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R17" t="n">
+        <v>60.60632115</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>-0.601</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.720906801</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>113.87</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5936461</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>-0.092</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R18" t="n">
+        <v>60.64931045</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>-0.092</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>2015000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>114.72</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6099529</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2600</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3200</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R19" t="n">
+        <v>60.69229976</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.82133995</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>2030000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>117.54</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6270528</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1846</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>-0.422</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3190</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R20" t="n">
+        <v>60.73528906</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>-0.422</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3.291133005</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>114.74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6450324</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3400</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R21" t="n">
+        <v>60.78687623</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="U21" t="n">
+        <v>6.292682927</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>114.23</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6639751</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R22" t="n">
+        <v>60.82126767</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="U22" t="n">
+        <v>6.990291262</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>109.85</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6840457</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2573</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5964</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R23" t="n">
+        <v>60.85565911</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="U23" t="n">
+        <v>6.11884058</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>2090000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>116.75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7051090</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3217</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5918</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R24" t="n">
+        <v>60.90724628</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="U24" t="n">
+        <v>6.473205742</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>117.24</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7268560</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1956</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4187</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R25" t="n">
+        <v>60.94163772</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4.238095238</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>2124000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>117.46</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7491935</v>
+      </c>
+      <c r="I26" t="n">
+        <v>620</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>-0.238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4980</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R26" t="n">
+        <v>61.00182275</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>-0.238</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4.076271186</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>2296000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>120.83</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7720859</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1501</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>-0.189</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3514</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R27" t="n">
+        <v>61.49018124</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>-0.189</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.590156794</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>58.89</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>2289000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>121.17</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7955197</v>
+      </c>
+      <c r="I28" t="n">
+        <v>825</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3880</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R28" t="n">
+        <v>61.4987791</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3.853211009</v>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2443000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>99.51000000000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8195142</v>
+      </c>
+      <c r="I29" t="n">
+        <v>888</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4169</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R29" t="n">
+        <v>61.78250851</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3.19525174</v>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>54.41</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>146.28</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8440919</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1495</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4667</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R30" t="n">
+        <v>61.90459814</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4.3132</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="n">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>55.05</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>2520000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>130.37</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8692289</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3400</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R31" t="n">
+        <v>61.93898958</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.936507937</v>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2540000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8948162</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R32" t="n">
+        <v>61.97338102</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3.464566929</v>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>56.25</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>2560000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>138.05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9207310</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R33" t="n">
+        <v>62.03356605</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.734375</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>2570000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>136.62</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9470990</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6600</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R34" t="n">
+        <v>62.07655535</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6.070038911</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>135.32</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9740088</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7400</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R35" t="n">
+        <v>62.13674038</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="U35" t="n">
+        <v>5.384615385</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>2620000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10015017</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>-0.068</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R36" t="n">
+        <v>62.17972968</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>-0.068</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.519083969</v>
+      </c>
+      <c r="V36" t="n">
+        <v>16.303</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>62.38</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>2650000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>139.69</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10297746</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5600</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R37" t="n">
+        <v>62.23991471</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="U37" t="n">
+        <v>3.660377358</v>
+      </c>
+      <c r="V37" t="n">
+        <v>16.1196625</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>2670000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>142.15</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10588428</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2160</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6153</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R38" t="n">
+        <v>62.28290401</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="U38" t="n">
+        <v>4.062172285</v>
+      </c>
+      <c r="V38" t="n">
+        <v>15.936325</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>2680000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>142.68</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10890514</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1466</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3567</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R39" t="n">
+        <v>62.31729546</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.340298507</v>
+      </c>
+      <c r="V39" t="n">
+        <v>15.7529875</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>147.83</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11206789</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3506</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3830</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R40" t="n">
+        <v>62.36888262</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3.971111111</v>
+      </c>
+      <c r="V40" t="n">
+        <v>15.56965</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>2710000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>148.14</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11536734</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1043</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2473</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R41" t="n">
+        <v>62.41187193</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.294833948</v>
+      </c>
+      <c r="V41" t="n">
+        <v>15.3863125</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10.70600835</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2720000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>151.06</v>
+      </c>
+      <c r="H42" t="n">
+        <v>11882762</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2538</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4356</v>
+      </c>
+      <c r="N42" t="n">
+        <v>187.44</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R42" t="n">
+        <v>62.46345909</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3.990808824</v>
+      </c>
+      <c r="V42" t="n">
+        <v>15.202975</v>
+      </c>
+      <c r="W42" t="n">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.58430707</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>80.83</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12245260</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2330</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>79.2056602093914</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3745</v>
+      </c>
+      <c r="N43" t="n">
+        <v>183</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R43" t="n">
+        <v>62.5064484</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="U43" t="n">
+        <v>3.444363636</v>
+      </c>
+      <c r="V43" t="n">
+        <v>15.0196375</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10.51042704</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2780000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>82.23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12623342</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1636</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>79.17097255506761</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3938</v>
+      </c>
+      <c r="N44" t="n">
+        <v>178.56</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R44" t="n">
+        <v>62.54083984</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.768705036</v>
+      </c>
+      <c r="V44" t="n">
+        <v>14.8363</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10.47245716</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>84.68000000000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13020100</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1574</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>79.13850011025281</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5973</v>
+      </c>
+      <c r="N45" t="n">
+        <v>174.12</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R45" t="n">
+        <v>62.7471885</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3.821724138</v>
+      </c>
+      <c r="V45" t="n">
+        <v>14.6529625</v>
+      </c>
+      <c r="W45" t="n">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10.45848633</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>85.45999999999999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>13436121</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2659</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>79.2726774847292</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6008</v>
+      </c>
+      <c r="N46" t="n">
+        <v>169.68</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R46" t="n">
+        <v>62.72999278</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3.884827586</v>
+      </c>
+      <c r="V46" t="n">
+        <v>14.469625</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10.45660345</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>87.83</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13869138</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2688</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>79.09885784999901</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="M47" t="n">
+        <v>7727</v>
+      </c>
+      <c r="N47" t="n">
+        <v>165.24</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R47" t="n">
+        <v>62.72999278</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="U47" t="n">
+        <v>4.326206897</v>
+      </c>
+      <c r="V47" t="n">
+        <v>14.2862875</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10.5780517</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>87.34</v>
+      </c>
+      <c r="H48" t="n">
+        <v>14317454</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4631</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>79.0016020709682</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8917</v>
+      </c>
+      <c r="N48" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R48" t="n">
+        <v>62.92946315</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="U48" t="n">
+        <v>5.747931034</v>
+      </c>
+      <c r="V48" t="n">
+        <v>14.10295</v>
+      </c>
+      <c r="W48" t="n">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>70.85</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="E49" t="n">
+        <v>10.87907669</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>90.47</v>
+      </c>
+      <c r="H49" t="n">
+        <v>14778903</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2996</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>78.8547796480776</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3636</v>
+      </c>
+      <c r="N49" t="n">
+        <v>156.36</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R49" t="n">
+        <v>64.46676067</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3.275862069</v>
+      </c>
+      <c r="V49" t="n">
+        <v>13.9196125</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11.26527092</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>89.64</v>
+      </c>
+      <c r="H50" t="n">
+        <v>15250934</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2734</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>78.7512864322465</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3590</v>
+      </c>
+      <c r="N50" t="n">
+        <v>151.92</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R50" t="n">
+        <v>66.18633284000001</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.992068966</v>
+      </c>
+      <c r="V50" t="n">
+        <v>13.736275</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>72.3</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="E51" t="n">
+        <v>11.64222689</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>89.48999999999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>15730885</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2268</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>78.6706460200346</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4296</v>
+      </c>
+      <c r="N51" t="n">
+        <v>147.48</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R51" t="n">
+        <v>67.92310073</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.715172414</v>
+      </c>
+      <c r="V51" t="n">
+        <v>13.5529375</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11.91553713</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>89.20999999999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>16216431</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2961</v>
+      </c>
+      <c r="J52" t="n">
+        <v>91.43568999999999</v>
+      </c>
+      <c r="K52" t="n">
+        <v>78.6854215624854</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3796</v>
+      </c>
+      <c r="N52" t="n">
+        <v>143.04</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R52" t="n">
+        <v>69.64267289999999</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3.141724138</v>
+      </c>
+      <c r="V52" t="n">
+        <v>13.3696</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12.07878242</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="H53" t="n">
+        <v>16709665</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2838</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>78.646046198351</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3205</v>
+      </c>
+      <c r="N53" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R53" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3.068135593</v>
+      </c>
+      <c r="V53" t="n">
+        <v>13.38718</v>
+      </c>
+      <c r="W53" t="n">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.2058972</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>81.66</v>
+      </c>
+      <c r="H54" t="n">
+        <v>17211934</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1758.86</v>
+      </c>
+      <c r="J54" t="n">
+        <v>89.03413</v>
+      </c>
+      <c r="K54" t="n">
+        <v>81.1103113253326</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2683.47</v>
+      </c>
+      <c r="N54" t="n">
+        <v>134.16</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R54" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.103335593</v>
+      </c>
+      <c r="V54" t="n">
+        <v>13.40476</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1762.51</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12.32300448</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>82.09</v>
+      </c>
+      <c r="H55" t="n">
+        <v>17724310</v>
+      </c>
+      <c r="I55" t="n">
+        <v>945.87</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>81.5511692463145</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4686.85</v>
+      </c>
+      <c r="N55" t="n">
+        <v>129.72</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R55" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.359620339</v>
+      </c>
+      <c r="V55" t="n">
+        <v>13.42234</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1328.16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12.45622727</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>83.91</v>
+      </c>
+      <c r="H56" t="n">
+        <v>18250774</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1884.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>86.63257</v>
+      </c>
+      <c r="K56" t="n">
+        <v>81.9183766526609</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2861.48</v>
+      </c>
+      <c r="N56" t="n">
+        <v>125.28</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R56" t="n">
+        <v>70.23248615999999</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.263522034</v>
+      </c>
+      <c r="V56" t="n">
+        <v>13.43992</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1931.31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12.63168856</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>91.02</v>
+      </c>
+      <c r="H57" t="n">
+        <v>18792171</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4567.59</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>81.9640947812637</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="M57" t="n">
+        <v>7463.6</v>
+      </c>
+      <c r="N57" t="n">
+        <v>120.84</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R57" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="U57" t="n">
+        <v>5.567373333</v>
+      </c>
+      <c r="V57" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W57" t="n">
+        <v>4670.93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>90.7</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.85101204</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>91.39</v>
+      </c>
+      <c r="H58" t="n">
+        <v>19350299</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2068.17</v>
+      </c>
+      <c r="J58" t="n">
+        <v>84.23101</v>
+      </c>
+      <c r="K58" t="n">
+        <v>80.3407292936396</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3821.17</v>
+      </c>
+      <c r="N58" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R58" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.52645</v>
+      </c>
+      <c r="V58" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1690.01</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13.11900191</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>93.63</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19924958</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2549.34</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>78.45316427879921</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4502.81</v>
+      </c>
+      <c r="N59" t="n">
+        <v>111.96</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R59" t="n">
+        <v>70.31846477000001</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.210956667</v>
+      </c>
+      <c r="V59" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2580.72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.46655191</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>20513599</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2370.7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>81.82944999999999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>76.50664545357751</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="M60" t="n">
+        <v>7502.12</v>
+      </c>
+      <c r="N60" t="n">
+        <v>107.52</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R60" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="U60" t="n">
+        <v>4.273506667</v>
+      </c>
+      <c r="V60" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2947.7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>103.85</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13.92455578</v>
+      </c>
+      <c r="F61" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>96.69</v>
+      </c>
+      <c r="H61" t="n">
+        <v>21117092</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1636.72</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>75.29206203744231</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4410.95</v>
+      </c>
+      <c r="N61" t="n">
+        <v>103.08</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R61" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.605223333</v>
+      </c>
+      <c r="V61" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>106.3</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="E62" t="n">
+        <v>14.52390726</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>21731053</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2040.1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>79.42789</v>
+      </c>
+      <c r="K62" t="n">
+        <v>73.3571582289302</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4577.51</v>
+      </c>
+      <c r="N62" t="n">
+        <v>98.64</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>581540</v>
+      </c>
+      <c r="R62" t="n">
+        <v>70.32190391</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.977286667</v>
+      </c>
+      <c r="V62" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W62" t="n">
+        <v>2314.25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>105.45</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>16.01701781</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>97.65000000000001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>22348158</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1685.57</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>71.25512993670711</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="M63" t="n">
+        <v>8660.940000000001</v>
+      </c>
+      <c r="N63" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>581795</v>
+      </c>
+      <c r="R63" t="n">
+        <v>70.29108191</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="U63" t="n">
+        <v>4.203673333</v>
+      </c>
+      <c r="V63" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2264.51</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>110.29</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E64" t="n">
+        <v>14.70097017</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>98.51000000000001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>22966240</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2260.43</v>
+      </c>
+      <c r="J64" t="n">
+        <v>77.02633</v>
+      </c>
+      <c r="K64" t="n">
+        <v>68.8728786485411</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="M64" t="n">
+        <v>16838.84</v>
+      </c>
+      <c r="N64" t="n">
+        <v>89.76000000000001</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>581795</v>
+      </c>
+      <c r="R64" t="n">
+        <v>70.29108191</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="U64" t="n">
+        <v>7.03834</v>
+      </c>
+      <c r="V64" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W64" t="n">
+        <v>2015.75</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15.50495195</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>98.22</v>
+      </c>
+      <c r="H65" t="n">
+        <v>23588073</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2226.71</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>71.1856752282833</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="M65" t="n">
+        <v>10261.44</v>
+      </c>
+      <c r="N65" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R65" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="U65" t="n">
+        <v>4.799916667</v>
+      </c>
+      <c r="V65" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1911.6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>101.75</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="E66" t="n">
+        <v>15.00220058</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>97.76000000000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>24215976</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3994.18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>74.62477</v>
+      </c>
+      <c r="K66" t="n">
+        <v>73.0968857266804</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="M66" t="n">
+        <v>18316.46</v>
+      </c>
+      <c r="N66" t="n">
+        <v>80.88</v>
+      </c>
+      <c r="O66" t="n">
+        <v>408950.00001494</v>
+      </c>
+      <c r="P66" t="n">
+        <v>17701124.30432035</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R66" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="U66" t="n">
+        <v>8.734476666999999</v>
+      </c>
+      <c r="V66" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W66" t="n">
+        <v>3892.79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>16.07771766</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>100.17</v>
+      </c>
+      <c r="H67" t="n">
+        <v>24850912</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2666.43</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>74.64428156637</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="M67" t="n">
+        <v>16444.6</v>
+      </c>
+      <c r="N67" t="n">
+        <v>76.44</v>
+      </c>
+      <c r="O67" t="n">
+        <v>408950.00001494</v>
+      </c>
+      <c r="P67" t="n">
+        <v>18549784.72509083</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R67" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="U67" t="n">
+        <v>7.531023333</v>
+      </c>
+      <c r="V67" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W67" t="n">
+        <v>3482.04</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>99.82</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>16.13873646</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>102.07</v>
+      </c>
+      <c r="H68" t="n">
+        <v>25501941</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4311.81</v>
+      </c>
+      <c r="J68" t="n">
+        <v>72.22320999999999</v>
+      </c>
+      <c r="K68" t="n">
+        <v>73.9809314360574</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="M68" t="n">
+        <v>9337.1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>72</v>
+      </c>
+      <c r="O68" t="n">
+        <v>408950.00001494</v>
+      </c>
+      <c r="P68" t="n">
+        <v>18866573.48607381</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R68" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="U68" t="n">
+        <v>5.988923333</v>
+      </c>
+      <c r="V68" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W68" t="n">
+        <v>4317.86</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>12.55149979</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>101.28</v>
+      </c>
+      <c r="H69" t="n">
+        <v>26169542</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3936.95</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>73.3285308066143</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="M69" t="n">
+        <v>31410.7</v>
+      </c>
+      <c r="N69" t="n">
+        <v>84</v>
+      </c>
+      <c r="O69" t="n">
+        <v>408950.00001494</v>
+      </c>
+      <c r="P69" t="n">
+        <v>19189740.66741987</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R69" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="U69" t="n">
+        <v>12.99518667</v>
+      </c>
+      <c r="V69" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W69" t="n">
+        <v>3637.91</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>101.87</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>12.72380957</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>94.38</v>
+      </c>
+      <c r="H70" t="n">
+        <v>26846541</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4642.05</v>
+      </c>
+      <c r="J70" t="n">
+        <v>69.82165000000001</v>
+      </c>
+      <c r="K70" t="n">
+        <v>72.7796980950079</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="M70" t="n">
+        <v>28692.64</v>
+      </c>
+      <c r="N70" t="n">
+        <v>90</v>
+      </c>
+      <c r="O70" t="n">
+        <v>408950.00001494</v>
+      </c>
+      <c r="P70" t="n">
+        <v>19538831.48875251</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R70" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="U70" t="n">
+        <v>12.60090667</v>
+      </c>
+      <c r="V70" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4468.03</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>102.83</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>12.79453865</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>95.33</v>
+      </c>
+      <c r="H71" t="n">
+        <v>27533134</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5984.15</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>71.9196151923047</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.329</v>
+      </c>
+      <c r="M71" t="n">
+        <v>24184.52</v>
+      </c>
+      <c r="N71" t="n">
+        <v>90</v>
+      </c>
+      <c r="O71" t="n">
+        <v>408950.00001494</v>
+      </c>
+      <c r="P71" t="n">
+        <v>19801724.02318161</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R71" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.329</v>
+      </c>
+      <c r="U71" t="n">
+        <v>11.94542</v>
+      </c>
+      <c r="V71" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W71" t="n">
+        <v>5667.59</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>103.99</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>12.75351995</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>92.98</v>
+      </c>
+      <c r="H72" t="n">
+        <v>28225177</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6841.65</v>
+      </c>
+      <c r="J72" t="n">
+        <v>67.42009</v>
+      </c>
+      <c r="K72" t="n">
+        <v>71.66677292436469</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="M72" t="n">
+        <v>19108.35</v>
+      </c>
+      <c r="N72" t="n">
+        <v>90</v>
+      </c>
+      <c r="O72" t="n">
+        <v>408950.00001494</v>
+      </c>
+      <c r="P72" t="n">
+        <v>20228073.50809001</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R72" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="U72" t="n">
+        <v>10.58036</v>
+      </c>
+      <c r="V72" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W72" t="n">
+        <v>5791.08</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" t="n">
-        <v>105.75</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>105.75</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="H73" t="n">
+        <v>28915653</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5399.02</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>71.1895853059746</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="M73" t="n">
+        <v>9559.290000000001</v>
+      </c>
+      <c r="N73" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="O73" t="n">
         <v>408950.00001494</v>
       </c>
-      <c r="E9" t="n">
-        <v>1513</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="P73" t="n">
+        <v>20584933.45921461</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>581800</v>
+      </c>
+      <c r="R73" t="n">
+        <v>70.29047783</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="U73" t="n">
         <v>3.33934</v>
       </c>
-      <c r="G9" t="n">
-        <v>28915653</v>
-      </c>
-      <c r="H9" t="n">
-        <v>71.1895853059746</v>
-      </c>
+      <c r="V73" t="n">
+        <v>13.4575</v>
+      </c>
+      <c r="W73" t="n">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>108.17</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>29611714</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3149.63</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>70.0664413449793</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="M74" t="n">
+        <v>14651.84</v>
+      </c>
+      <c r="N74" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="n">
+        <v>2830.25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>30325732</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
